--- a/DateBase/orders/Nha Thu_2025-8-14.xlsx
+++ b/DateBase/orders/Nha Thu_2025-8-14.xlsx
@@ -959,6 +959,9 @@
       <c r="G2" t="str">
         <v>015121310951511157912655101515110105202013201510201010101510510101520555151055101010510555</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
